--- a/실무_엑셀_예제_파일/Chapter04/04-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56E0538-0A83-45C6-A73A-6AA205B93937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E0676-F1C5-4A77-B0BE-391F4C2E9AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="20796" windowHeight="12936" xr2:uid="{4D745F4C-BFB5-4B97-9CC7-6221576CE448}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4D745F4C-BFB5-4B97-9CC7-6221576CE448}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,16 +580,16 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -681,7 +681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -695,7 +695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
@@ -715,6 +715,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>